--- a/lab/lab04/files/IP plan_Otus.xlsx
+++ b/lab/lab04/files/IP plan_Otus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasilev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS_NETWORK-ENGINEER\otus_network_engineer\lab\lab04\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227B541-BB93-417B-960C-5AE889D3A7E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC3388-59AF-4E1F-A802-1A17DF3D9EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab/lab04/files/IP plan_Otus.xlsx
+++ b/lab/lab04/files/IP plan_Otus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS_NETWORK-ENGINEER\otus_network_engineer\lab\lab04\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC3388-59AF-4E1F-A802-1A17DF3D9EE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EE328-4DFA-4A0C-BAD3-D65D446CAE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="164">
   <si>
     <t>Киторн</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>R16_e0/2_to_SW9_e1/0</t>
+  </si>
+  <si>
+    <t>10.</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2138,9 @@
       <c r="H41" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="58"/>
+      <c r="I41" s="58" t="s">
+        <v>163</v>
+      </c>
       <c r="J41" s="67" t="s">
         <v>157</v>
       </c>

--- a/lab/lab04/files/IP plan_Otus.xlsx
+++ b/lab/lab04/files/IP plan_Otus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS_NETWORK-ENGINEER\otus_network_engineer\lab\lab04\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EE328-4DFA-4A0C-BAD3-D65D446CAE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE6980-F7B2-45A2-9440-CC6DF988B004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="193">
   <si>
     <t>Киторн</t>
   </si>
@@ -105,18 +105,6 @@
     <t>R26</t>
   </si>
   <si>
-    <t>10.40.23.0/24</t>
-  </si>
-  <si>
-    <t>10.40.24.0/24</t>
-  </si>
-  <si>
-    <t>10.40.25.0/24</t>
-  </si>
-  <si>
-    <t>10.40.26.0/24</t>
-  </si>
-  <si>
     <t>R27</t>
   </si>
   <si>
@@ -144,18 +132,6 @@
     <t>R18</t>
   </si>
   <si>
-    <t>10.60.16.0/24</t>
-  </si>
-  <si>
-    <t>10.60.17.0/24</t>
-  </si>
-  <si>
-    <t>10.60.18.0/24</t>
-  </si>
-  <si>
-    <t>10.60.23.0/24</t>
-  </si>
-  <si>
     <t>R12</t>
   </si>
   <si>
@@ -171,24 +147,6 @@
     <t>R20</t>
   </si>
   <si>
-    <t>10.70.12.0/24</t>
-  </si>
-  <si>
-    <t>10.70.13.0/24</t>
-  </si>
-  <si>
-    <t>10.70.14.0/24</t>
-  </si>
-  <si>
-    <t>10.70.15.0./24</t>
-  </si>
-  <si>
-    <t>10.70.19.0/24</t>
-  </si>
-  <si>
-    <t>10.70.20.0/24</t>
-  </si>
-  <si>
     <t>ip адрес</t>
   </si>
   <si>
@@ -243,9 +201,6 @@
     <t>10.30.40.1/30</t>
   </si>
   <si>
-    <t>10.40.23.1/24</t>
-  </si>
-  <si>
     <t>10.10.40.2/30</t>
   </si>
   <si>
@@ -267,9 +222,6 @@
     <t>VPC31</t>
   </si>
   <si>
-    <t>10.50.30.0/24</t>
-  </si>
-  <si>
     <t>10.50.31.0/24</t>
   </si>
   <si>
@@ -327,15 +279,6 @@
     <t>R23_e0/1_to_R25_e0/0</t>
   </si>
   <si>
-    <t>10.40.25.1/24</t>
-  </si>
-  <si>
-    <t>10.40.24.1/24</t>
-  </si>
-  <si>
-    <t>10.40.26.1/24</t>
-  </si>
-  <si>
     <t>Лабытнанги</t>
   </si>
   <si>
@@ -384,12 +327,6 @@
     <t>R26_e0/3_to_R18_e0/3</t>
   </si>
   <si>
-    <t>10.40.26.1/30</t>
-  </si>
-  <si>
-    <t>10.40.26.2/30</t>
-  </si>
-  <si>
     <t>R26_e0/2_to_R25_e0/2</t>
   </si>
   <si>
@@ -435,24 +372,6 @@
     <t>SW5</t>
   </si>
   <si>
-    <t>R17_e0/0</t>
-  </si>
-  <si>
-    <t>R17_e0/1</t>
-  </si>
-  <si>
-    <t>R17_e0/2</t>
-  </si>
-  <si>
-    <t>R18_e0/0</t>
-  </si>
-  <si>
-    <t>R18_e0/1</t>
-  </si>
-  <si>
-    <t>R18_e0/2</t>
-  </si>
-  <si>
     <t>R18_e0/3</t>
   </si>
   <si>
@@ -486,37 +405,205 @@
     <t>R32_e0/0_to_R16_e0/3</t>
   </si>
   <si>
-    <t>10.60.32.1/24</t>
-  </si>
-  <si>
     <t>R16_e0/3_R32_e0/0</t>
   </si>
   <si>
-    <t>10.32.16.2/30</t>
-  </si>
-  <si>
     <t>R16_e0/0_to_SW10_e0/3</t>
   </si>
   <si>
     <t>R16_e0/1_to_R18_e0/0</t>
   </si>
   <si>
-    <t>10.60.17.1/24</t>
-  </si>
-  <si>
-    <t>10.60.16.1/24</t>
-  </si>
-  <si>
-    <t>10.60.18.1/24</t>
-  </si>
-  <si>
     <t>SW10_e0/3_to_R16_e0/0</t>
   </si>
   <si>
     <t>R16_e0/2_to_SW9_e1/0</t>
   </si>
   <si>
-    <t>10.</t>
+    <t>10.60.18.1/30</t>
+  </si>
+  <si>
+    <t>10.40.26.101/30</t>
+  </si>
+  <si>
+    <t>10.40.26.102/30</t>
+  </si>
+  <si>
+    <t>10.60.18.129/30</t>
+  </si>
+  <si>
+    <t>R17_e0/0_to_SW9</t>
+  </si>
+  <si>
+    <t>R17_e0/1_to_R18</t>
+  </si>
+  <si>
+    <t>R17_e0/2_to_SW10</t>
+  </si>
+  <si>
+    <t>R18_e0/0_to_R16</t>
+  </si>
+  <si>
+    <t>R18_e0/1_to_R17</t>
+  </si>
+  <si>
+    <t>R18_e0/2_to_R24</t>
+  </si>
+  <si>
+    <t>10.60.32.101/30</t>
+  </si>
+  <si>
+    <t>10.60.32.102/30</t>
+  </si>
+  <si>
+    <t>loopback</t>
+  </si>
+  <si>
+    <t>10.60.16.1/29</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>10.60.16.2/29</t>
+  </si>
+  <si>
+    <t>10.60.16.3/29</t>
+  </si>
+  <si>
+    <t>10.40.23.1/29</t>
+  </si>
+  <si>
+    <t>10.40.24.1/29</t>
+  </si>
+  <si>
+    <t>10.40.25.1/29</t>
+  </si>
+  <si>
+    <t>10.40.26.1/29</t>
+  </si>
+  <si>
+    <t>10.50.28.1/29</t>
+  </si>
+  <si>
+    <t>10.50.30.0/29</t>
+  </si>
+  <si>
+    <t>10.60.17.1/29</t>
+  </si>
+  <si>
+    <t>10.60.18.1/29</t>
+  </si>
+  <si>
+    <t>10.60.32.1/29</t>
+  </si>
+  <si>
+    <t>10.40.23.0/29</t>
+  </si>
+  <si>
+    <t>10.40.24.0/29</t>
+  </si>
+  <si>
+    <t>10.40.25.0/29</t>
+  </si>
+  <si>
+    <t>10.40.26.0/29</t>
+  </si>
+  <si>
+    <t>10.60.16.0/29</t>
+  </si>
+  <si>
+    <t>10.60.17.0/29</t>
+  </si>
+  <si>
+    <t>10.60.18.0/29</t>
+  </si>
+  <si>
+    <t>10.60.23.0/29</t>
+  </si>
+  <si>
+    <t>10.70.12.0/29</t>
+  </si>
+  <si>
+    <t>10.70.13.0/29</t>
+  </si>
+  <si>
+    <t>10.70.14.0/29</t>
+  </si>
+  <si>
+    <t>10.70.15.0./29</t>
+  </si>
+  <si>
+    <t>10.70.19.0/29</t>
+  </si>
+  <si>
+    <t>10.70.20.0/29</t>
+  </si>
+  <si>
+    <t>10.70.12.1/29</t>
+  </si>
+  <si>
+    <t>10.70.13.1/29</t>
+  </si>
+  <si>
+    <t>10.70.14.1/29</t>
+  </si>
+  <si>
+    <t>10.70.15.1/29</t>
+  </si>
+  <si>
+    <t>10.70.14.101/30</t>
+  </si>
+  <si>
+    <t>10.70.14.102/30</t>
+  </si>
+  <si>
+    <t>10.70.19.102/30</t>
+  </si>
+  <si>
+    <t>10.70.19.101/30</t>
+  </si>
+  <si>
+    <t>10.70.20.101/30</t>
+  </si>
+  <si>
+    <t>10.70.20.102/30</t>
+  </si>
+  <si>
+    <t>10.40.60.2/30</t>
+  </si>
+  <si>
+    <t>10.60.18.101/30</t>
+  </si>
+  <si>
+    <t>10.60.18.102/30</t>
+  </si>
+  <si>
+    <t>10.70.14.129/30</t>
+  </si>
+  <si>
+    <t>10.70.20.1/30</t>
+  </si>
+  <si>
+    <t>10.70.15.101/30</t>
+  </si>
+  <si>
+    <t>10.70.15.129/30</t>
+  </si>
+  <si>
+    <t>10.70.15.130/30</t>
+  </si>
+  <si>
+    <t>10.70.15.102/30</t>
+  </si>
+  <si>
+    <t>10.70.14.130/30</t>
+  </si>
+  <si>
+    <t>10.70.20.1/29</t>
+  </si>
+  <si>
+    <t>10.70.19.1/29</t>
   </si>
 </sst>
 </file>
@@ -807,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -879,6 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1164,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1270,7 @@
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1200,19 +1288,19 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1236,9 +1324,11 @@
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1260,13 +1350,13 @@
         <v>18</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1274,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
@@ -1289,13 +1379,13 @@
         <v>18</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1318,13 +1408,13 @@
         <v>18</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,9 +1438,11 @@
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1372,13 +1464,13 @@
         <v>20</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,13 +1493,13 @@
         <v>20</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,16 +1529,18 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="F10" s="37" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1454,17 +1548,17 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="F11" s="40" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1484,9 +1578,11 @@
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="45"/>
+        <v>148</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -1504,13 +1600,13 @@
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="47" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1527,13 +1623,13 @@
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1552,18 +1648,18 @@
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="49" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="J15" s="50" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>12</v>
@@ -1578,33 +1674,35 @@
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="48"/>
+        <v>149</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11">
         <v>27</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F17" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,13 +1719,13 @@
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="47" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1639,20 +1737,20 @@
         <v>23</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="47" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1664,20 +1762,20 @@
         <v>24</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="F21" s="46" t="s">
         <v>3</v>
@@ -1699,9 +1797,11 @@
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="48"/>
+        <v>150</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
@@ -1712,20 +1812,20 @@
         <v>26</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="F22" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1742,63 +1842,63 @@
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="47" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>28</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F24" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="47" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I24" s="47" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="11">
         <v>29</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F25" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1818,83 +1918,85 @@
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="48"/>
+        <v>151</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
         <v>16</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="F27" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="F28" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2">
         <v>18</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="F29" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I29" s="47" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1906,20 +2008,20 @@
         <v>23</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="49" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1935,111 +2037,115 @@
         <v>5</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H31" s="54"/>
       <c r="I31" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="55"/>
+        <v>152</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2">
         <v>12</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I32" s="52" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="J32" s="57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2">
         <v>12</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="F33" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="52"/>
       <c r="H33" s="52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I33" s="52" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J33" s="57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2">
         <v>12</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="F34" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="52"/>
       <c r="H34" s="52" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I34" s="52" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J34" s="57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2">
         <v>12</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="F35" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
-      <c r="J35" s="57"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>17</v>
@@ -2048,398 +2154,433 @@
         <v>19</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="F36" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G36" s="52"/>
       <c r="H36" s="52" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I36" s="52" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="J36" s="57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C37" s="11">
         <v>20</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="F37" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G37" s="52"/>
       <c r="H37" s="52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="J37" s="57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="60" t="s">
         <v>5</v>
       </c>
       <c r="G38" s="61"/>
       <c r="H38" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="61" t="s">
-        <v>77</v>
-      </c>
       <c r="J38" s="62"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F39" s="63" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H39" s="64"/>
       <c r="I39" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39" s="65"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="J39" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F40" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="58"/>
       <c r="H40" s="58" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I40" s="58" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J40" s="67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F41" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="58"/>
       <c r="H41" s="58" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="J41" s="67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G42" s="58"/>
       <c r="H42" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="58"/>
+        <v>48</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>147</v>
+      </c>
       <c r="J42" s="67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F43" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G43" s="58"/>
       <c r="H43" s="58" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="J43" s="67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44" s="58"/>
       <c r="I44" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="J44" s="67"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="J44" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="58"/>
       <c r="H45" s="58" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I45" s="58"/>
       <c r="J45" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="58"/>
       <c r="H46" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="58"/>
+        <v>47</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>183</v>
+      </c>
       <c r="J46" s="67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F47" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G47" s="58"/>
       <c r="H47" s="58" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I47" s="58"/>
       <c r="J47" s="67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F48" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48" s="58"/>
       <c r="I48" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="J48" s="67"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="J48" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="58"/>
       <c r="H49" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="58"/>
+        <v>46</v>
+      </c>
+      <c r="I49" s="58" t="s">
+        <v>134</v>
+      </c>
       <c r="J49" s="67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G50" s="58"/>
       <c r="H50" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="58"/>
+        <v>47</v>
+      </c>
+      <c r="I50" s="58" t="s">
+        <v>182</v>
+      </c>
       <c r="J50" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="58"/>
       <c r="H51" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="I51" s="58"/>
+        <v>48</v>
+      </c>
+      <c r="I51" s="58" t="s">
+        <v>181</v>
+      </c>
       <c r="J51" s="67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F52" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="58"/>
       <c r="H52" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52" s="58"/>
+        <v>59</v>
+      </c>
+      <c r="I52" s="58" t="s">
+        <v>89</v>
+      </c>
       <c r="J52" s="67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F53" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G53" s="58" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H53" s="58"/>
       <c r="I53" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="J53" s="67"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="J53" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F54" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G54" s="58"/>
       <c r="H54" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I54" s="58"/>
+        <v>46</v>
+      </c>
+      <c r="I54" s="58" t="s">
+        <v>141</v>
+      </c>
       <c r="J54" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F55" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="58" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H55" s="58"/>
       <c r="I55" s="58"/>
-      <c r="J55" s="67"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F56" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="58"/>
       <c r="H56" s="58" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I56" s="58"/>
       <c r="J56" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F57" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G57" s="58"/>
       <c r="H57" s="58" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I57" s="58"/>
       <c r="J57" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F58" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G58" s="58"/>
       <c r="H58" s="58" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I58" s="58"/>
       <c r="J58" s="67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F59" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="58" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I59" s="58"/>
       <c r="J59" s="67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G60" s="58"/>
       <c r="H60" s="58" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I60" s="58"/>
       <c r="J60" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F61" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H61" s="58"/>
       <c r="I61" s="58"/>
-      <c r="J61" s="67"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F62" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G62" s="58"/>
       <c r="H62" s="58" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I62" s="58"/>
       <c r="J62" s="67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F63" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G63" s="58"/>
       <c r="H63" s="58" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I63" s="58"/>
       <c r="J63" s="67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" s="66" t="s">
         <v>6</v>
       </c>
       <c r="G64" s="58"/>
       <c r="H64" s="58" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I64" s="58"/>
       <c r="J64" s="67" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.25">
@@ -2448,11 +2589,11 @@
       </c>
       <c r="G65" s="58"/>
       <c r="H65" s="58" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I65" s="70"/>
       <c r="J65" s="67" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.25">
@@ -2461,11 +2602,11 @@
       </c>
       <c r="G66" s="59"/>
       <c r="H66" s="59" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I66" s="59"/>
       <c r="J66" s="67" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="6:10" x14ac:dyDescent="0.25">
@@ -2482,11 +2623,15 @@
         <v>7</v>
       </c>
       <c r="G68" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" s="68"/>
+        <v>35</v>
+      </c>
+      <c r="H68" s="68" t="s">
+        <v>171</v>
+      </c>
       <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
+      <c r="J68" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="69" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F69" s="68" t="s">
@@ -2494,7 +2639,7 @@
       </c>
       <c r="G69" s="68"/>
       <c r="H69" s="68" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I69" s="68"/>
       <c r="J69" s="68"/>
@@ -2505,7 +2650,7 @@
       </c>
       <c r="G70" s="68"/>
       <c r="H70" s="68" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I70" s="68"/>
       <c r="J70" s="68"/>
@@ -2516,9 +2661,11 @@
       </c>
       <c r="G71" s="68"/>
       <c r="H71" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I71" s="68"/>
+        <v>48</v>
+      </c>
+      <c r="I71" s="68" t="s">
+        <v>190</v>
+      </c>
       <c r="J71" s="68"/>
     </row>
     <row r="72" spans="6:10" x14ac:dyDescent="0.25">
@@ -2527,9 +2674,11 @@
       </c>
       <c r="G72" s="68"/>
       <c r="H72" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I72" s="68"/>
+        <v>59</v>
+      </c>
+      <c r="I72" s="68" t="s">
+        <v>189</v>
+      </c>
       <c r="J72" s="68"/>
     </row>
     <row r="73" spans="6:10" x14ac:dyDescent="0.25">
@@ -2537,11 +2686,15 @@
         <v>7</v>
       </c>
       <c r="G73" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="68"/>
+        <v>36</v>
+      </c>
+      <c r="H73" s="68" t="s">
+        <v>172</v>
+      </c>
       <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
+      <c r="J73" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="74" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F74" s="68" t="s">
@@ -2549,7 +2702,7 @@
       </c>
       <c r="G74" s="68"/>
       <c r="H74" s="68" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I74" s="68"/>
       <c r="J74" s="68"/>
@@ -2560,7 +2713,7 @@
       </c>
       <c r="G75" s="68"/>
       <c r="H75" s="68" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I75" s="68"/>
       <c r="J75" s="68"/>
@@ -2571,9 +2724,11 @@
       </c>
       <c r="G76" s="68"/>
       <c r="H76" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I76" s="68"/>
+        <v>48</v>
+      </c>
+      <c r="I76" s="68" t="s">
+        <v>188</v>
+      </c>
       <c r="J76" s="68"/>
     </row>
     <row r="77" spans="6:10" x14ac:dyDescent="0.25">
@@ -2582,9 +2737,11 @@
       </c>
       <c r="G77" s="68"/>
       <c r="H77" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I77" s="68"/>
+        <v>59</v>
+      </c>
+      <c r="I77" s="68" t="s">
+        <v>176</v>
+      </c>
       <c r="J77" s="68"/>
     </row>
     <row r="78" spans="6:10" x14ac:dyDescent="0.25">
@@ -2592,11 +2749,15 @@
         <v>7</v>
       </c>
       <c r="G78" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="68"/>
+        <v>37</v>
+      </c>
+      <c r="H78" s="68" t="s">
+        <v>173</v>
+      </c>
       <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
+      <c r="J78" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="79" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F79" s="68" t="s">
@@ -2604,9 +2765,11 @@
       </c>
       <c r="G79" s="68"/>
       <c r="H79" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="I79" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="I79" s="68" t="s">
+        <v>184</v>
+      </c>
       <c r="J79" s="68"/>
     </row>
     <row r="80" spans="6:10" x14ac:dyDescent="0.25">
@@ -2615,9 +2778,11 @@
       </c>
       <c r="G80" s="68"/>
       <c r="H80" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="I80" s="68" t="s">
+        <v>175</v>
+      </c>
       <c r="J80" s="68"/>
     </row>
     <row r="81" spans="6:10" x14ac:dyDescent="0.25">
@@ -2626,9 +2791,11 @@
       </c>
       <c r="G81" s="68"/>
       <c r="H81" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I81" s="68"/>
+        <v>48</v>
+      </c>
+      <c r="I81" s="68" t="s">
+        <v>177</v>
+      </c>
       <c r="J81" s="68"/>
     </row>
     <row r="82" spans="6:10" x14ac:dyDescent="0.25">
@@ -2637,9 +2804,11 @@
       </c>
       <c r="G82" s="68"/>
       <c r="H82" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I82" s="68"/>
+        <v>59</v>
+      </c>
+      <c r="I82" s="68" t="s">
+        <v>177</v>
+      </c>
       <c r="J82" s="68"/>
     </row>
     <row r="83" spans="6:10" x14ac:dyDescent="0.25">
@@ -2647,11 +2816,15 @@
         <v>7</v>
       </c>
       <c r="G83" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H83" s="68"/>
+        <v>38</v>
+      </c>
+      <c r="H83" s="68" t="s">
+        <v>174</v>
+      </c>
       <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
+      <c r="J83" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="84" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F84" s="68" t="s">
@@ -2659,9 +2832,11 @@
       </c>
       <c r="G84" s="68"/>
       <c r="H84" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="I84" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="I84" s="68" t="s">
+        <v>187</v>
+      </c>
       <c r="J84" s="68"/>
     </row>
     <row r="85" spans="6:10" x14ac:dyDescent="0.25">
@@ -2670,9 +2845,11 @@
       </c>
       <c r="G85" s="68"/>
       <c r="H85" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="I85" s="68"/>
+        <v>47</v>
+      </c>
+      <c r="I85" s="68" t="s">
+        <v>186</v>
+      </c>
       <c r="J85" s="68"/>
     </row>
     <row r="86" spans="6:10" x14ac:dyDescent="0.25">
@@ -2681,9 +2858,11 @@
       </c>
       <c r="G86" s="68"/>
       <c r="H86" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I86" s="68"/>
+        <v>48</v>
+      </c>
+      <c r="I86" s="68" t="s">
+        <v>185</v>
+      </c>
       <c r="J86" s="68"/>
     </row>
     <row r="87" spans="6:10" x14ac:dyDescent="0.25">
@@ -2692,9 +2871,11 @@
       </c>
       <c r="G87" s="68"/>
       <c r="H87" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="I87" s="68"/>
+        <v>59</v>
+      </c>
+      <c r="I87" s="68" t="s">
+        <v>180</v>
+      </c>
       <c r="J87" s="68"/>
     </row>
     <row r="88" spans="6:10" x14ac:dyDescent="0.25">
@@ -2702,11 +2883,15 @@
         <v>7</v>
       </c>
       <c r="G88" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="H88" s="68"/>
+        <v>17</v>
+      </c>
+      <c r="H88" s="68" t="s">
+        <v>192</v>
+      </c>
       <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
+      <c r="J88" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="89" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F89" s="68" t="s">
@@ -2714,21 +2899,27 @@
       </c>
       <c r="G89" s="68"/>
       <c r="H89" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="I89" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="I89" s="68" t="s">
+        <v>178</v>
+      </c>
       <c r="J89" s="68"/>
     </row>
     <row r="90" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F90" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G90" s="68"/>
+      <c r="G90" s="68" t="s">
+        <v>39</v>
+      </c>
       <c r="H90" s="68" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
+      <c r="J90" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="91" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F91" s="68" t="s">
@@ -2736,18 +2927,18 @@
       </c>
       <c r="G91" s="68"/>
       <c r="H91" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I91" s="68"/>
+        <v>46</v>
+      </c>
+      <c r="I91" s="68" t="s">
+        <v>179</v>
+      </c>
       <c r="J91" s="68"/>
     </row>
     <row r="92" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F92" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="68" t="s">
-        <v>132</v>
-      </c>
+      <c r="G92" s="68"/>
       <c r="H92" s="68"/>
       <c r="I92" s="68"/>
       <c r="J92" s="68"/>
@@ -2756,10 +2947,10 @@
       <c r="F93" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68" t="s">
-        <v>60</v>
-      </c>
+      <c r="G93" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H93" s="68"/>
       <c r="I93" s="68"/>
       <c r="J93" s="68"/>
     </row>
@@ -2769,7 +2960,7 @@
       </c>
       <c r="G94" s="68"/>
       <c r="H94" s="68" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I94" s="68"/>
       <c r="J94" s="68"/>
@@ -2780,7 +2971,7 @@
       </c>
       <c r="G95" s="68"/>
       <c r="H95" s="68" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I95" s="68"/>
       <c r="J95" s="68"/>
@@ -2789,10 +2980,10 @@
       <c r="F96" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="I96" s="68"/>
       <c r="J96" s="68"/>
     </row>
@@ -2800,10 +2991,10 @@
       <c r="F97" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="68"/>
-      <c r="H97" s="68" t="s">
-        <v>60</v>
-      </c>
+      <c r="G97" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H97" s="68"/>
       <c r="I97" s="68"/>
       <c r="J97" s="68"/>
     </row>
@@ -2813,7 +3004,7 @@
       </c>
       <c r="G98" s="68"/>
       <c r="H98" s="68" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I98" s="68"/>
       <c r="J98" s="68"/>
@@ -2824,7 +3015,7 @@
       </c>
       <c r="G99" s="68"/>
       <c r="H99" s="68" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I99" s="68"/>
       <c r="J99" s="68"/>
@@ -2835,7 +3026,7 @@
       </c>
       <c r="G100" s="68"/>
       <c r="H100" s="68" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I100" s="68"/>
       <c r="J100" s="68"/>
@@ -2844,10 +3035,10 @@
       <c r="F101" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="68"/>
-      <c r="H101" s="68" t="s">
-        <v>129</v>
-      </c>
+      <c r="G101" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" s="68"/>
       <c r="I101" s="68"/>
       <c r="J101" s="68"/>
     </row>
@@ -2857,7 +3048,7 @@
       </c>
       <c r="G102" s="68"/>
       <c r="H102" s="68" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="I102" s="68"/>
       <c r="J102" s="68"/>
@@ -2866,10 +3057,10 @@
       <c r="F103" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="H103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68" t="s">
+        <v>47</v>
+      </c>
       <c r="I103" s="68"/>
       <c r="J103" s="68"/>
     </row>
@@ -2879,7 +3070,7 @@
       </c>
       <c r="G104" s="68"/>
       <c r="H104" s="68" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I104" s="68"/>
       <c r="J104" s="68"/>
@@ -2890,7 +3081,7 @@
       </c>
       <c r="G105" s="68"/>
       <c r="H105" s="68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I105" s="68"/>
       <c r="J105" s="68"/>
@@ -2901,7 +3092,7 @@
       </c>
       <c r="G106" s="68"/>
       <c r="H106" s="68" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="I106" s="68"/>
       <c r="J106" s="68"/>
@@ -2912,7 +3103,7 @@
       </c>
       <c r="G107" s="68"/>
       <c r="H107" s="68" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I107" s="68"/>
       <c r="J107" s="68"/>
@@ -2921,10 +3112,10 @@
       <c r="F108" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="68"/>
-      <c r="H108" s="68" t="s">
-        <v>129</v>
-      </c>
+      <c r="G108" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H108" s="68"/>
       <c r="I108" s="68"/>
       <c r="J108" s="68"/>
     </row>
@@ -2934,10 +3125,65 @@
       </c>
       <c r="G109" s="68"/>
       <c r="H109" s="68" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="I109" s="68"/>
       <c r="J109" s="68"/>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F110" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="68"/>
+      <c r="H110" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" s="68"/>
+      <c r="J110" s="68"/>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F111" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F112" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="68"/>
+      <c r="H112" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="I112" s="68"/>
+      <c r="J112" s="68"/>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F113" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F114" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab/lab04/files/IP plan_Otus.xlsx
+++ b/lab/lab04/files/IP plan_Otus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS_NETWORK-ENGINEER\otus_network_engineer\lab\lab04\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE6980-F7B2-45A2-9440-CC6DF988B004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F469F-24A6-4572-965A-1FA910849D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="194">
   <si>
     <t>Киторн</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>10.70.19.1/29</t>
+  </si>
+  <si>
+    <t>10.60.40.1/30</t>
   </si>
 </sst>
 </file>
@@ -1254,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,7 +2417,7 @@
         <v>59</v>
       </c>
       <c r="I52" s="58" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="J52" s="67" t="s">
         <v>115</v>

--- a/lab/lab04/files/IP plan_Otus.xlsx
+++ b/lab/lab04/files/IP plan_Otus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS_NETWORK-ENGINEER\otus_network_engineer\lab\lab04\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F469F-24A6-4572-965A-1FA910849D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFCDEB-E854-41F8-B22D-91471E4365CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="194">
   <si>
     <t>Киторн</t>
   </si>
@@ -606,7 +606,7 @@
     <t>10.70.19.1/29</t>
   </si>
   <si>
-    <t>10.60.40.1/30</t>
+    <t>10.10.70.2/30</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,9 +2416,7 @@
       <c r="H52" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="58" t="s">
-        <v>193</v>
-      </c>
+      <c r="I52" s="58"/>
       <c r="J52" s="67" t="s">
         <v>115</v>
       </c>
@@ -2797,7 +2795,7 @@
         <v>48</v>
       </c>
       <c r="I81" s="68" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J81" s="68"/>
     </row>

--- a/lab/lab04/files/IP plan_Otus.xlsx
+++ b/lab/lab04/files/IP plan_Otus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS_NETWORK-ENGINEER\otus_network_engineer\lab\lab04\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFCDEB-E854-41F8-B22D-91471E4365CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71602A91-641D-440C-AFF9-03DEA49FD797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="198">
   <si>
     <t>Киторн</t>
   </si>
@@ -607,6 +607,18 @@
   </si>
   <si>
     <t>10.10.70.2/30</t>
+  </si>
+  <si>
+    <t>10.12.13.1/30</t>
+  </si>
+  <si>
+    <t>10.12.13.2/30</t>
+  </si>
+  <si>
+    <t>R12_e1/0</t>
+  </si>
+  <si>
+    <t>R13_e1/0</t>
   </si>
 </sst>
 </file>
@@ -1255,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,27 +2698,31 @@
       <c r="F73" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="68" t="s">
-        <v>36</v>
-      </c>
+      <c r="G73" s="68"/>
       <c r="H73" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="I73" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="I73" s="68" t="s">
+        <v>194</v>
+      </c>
       <c r="J73" s="68" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F74" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G74" s="68"/>
+      <c r="G74" s="68" t="s">
+        <v>36</v>
+      </c>
       <c r="H74" s="68" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
+      <c r="J74" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="75" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F75" s="68" t="s">
@@ -2714,7 +2730,7 @@
       </c>
       <c r="G75" s="68"/>
       <c r="H75" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" s="68"/>
       <c r="J75" s="68"/>
@@ -2725,11 +2741,9 @@
       </c>
       <c r="G76" s="68"/>
       <c r="H76" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I76" s="68" t="s">
-        <v>188</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I76" s="68"/>
       <c r="J76" s="68"/>
     </row>
     <row r="77" spans="6:10" x14ac:dyDescent="0.25">
@@ -2738,10 +2752,10 @@
       </c>
       <c r="G77" s="68"/>
       <c r="H77" s="68" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I77" s="68" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J77" s="68"/>
     </row>
@@ -2749,15 +2763,15 @@
       <c r="F78" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="68" t="s">
-        <v>37</v>
-      </c>
+      <c r="G78" s="68"/>
       <c r="H78" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="I78" s="68"/>
+        <v>108</v>
+      </c>
+      <c r="I78" s="68" t="s">
+        <v>195</v>
+      </c>
       <c r="J78" s="68" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="6:10" x14ac:dyDescent="0.25">
@@ -2766,10 +2780,10 @@
       </c>
       <c r="G79" s="68"/>
       <c r="H79" s="68" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I79" s="68" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J79" s="68"/>
     </row>
@@ -2777,14 +2791,16 @@
       <c r="F80" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="68"/>
+      <c r="G80" s="68" t="s">
+        <v>37</v>
+      </c>
       <c r="H80" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I80" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="J80" s="68"/>
+        <v>173</v>
+      </c>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="81" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F81" s="68" t="s">
@@ -2792,10 +2808,10 @@
       </c>
       <c r="G81" s="68"/>
       <c r="H81" s="68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I81" s="68" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="J81" s="68"/>
     </row>
@@ -2805,10 +2821,10 @@
       </c>
       <c r="G82" s="68"/>
       <c r="H82" s="68" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I82" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J82" s="68"/>
     </row>
@@ -2816,16 +2832,14 @@
       <c r="F83" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="68" t="s">
-        <v>38</v>
-      </c>
+      <c r="G83" s="68"/>
       <c r="H83" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68" t="s">
-        <v>143</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I83" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="J83" s="68"/>
     </row>
     <row r="84" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F84" s="68" t="s">
@@ -2833,10 +2847,10 @@
       </c>
       <c r="G84" s="68"/>
       <c r="H84" s="68" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I84" s="68" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J84" s="68"/>
     </row>
@@ -2844,14 +2858,16 @@
       <c r="F85" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G85" s="68"/>
+      <c r="G85" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="H85" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I85" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="J85" s="68"/>
+        <v>174</v>
+      </c>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="86" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F86" s="68" t="s">
@@ -2859,10 +2875,10 @@
       </c>
       <c r="G86" s="68"/>
       <c r="H86" s="68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I86" s="68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J86" s="68"/>
     </row>
@@ -2872,10 +2888,10 @@
       </c>
       <c r="G87" s="68"/>
       <c r="H87" s="68" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I87" s="68" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J87" s="68"/>
     </row>
@@ -2883,16 +2899,14 @@
       <c r="F88" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="68" t="s">
-        <v>17</v>
-      </c>
+      <c r="G88" s="68"/>
       <c r="H88" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68" t="s">
-        <v>143</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I88" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="J88" s="68"/>
     </row>
     <row r="89" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F89" s="68" t="s">
@@ -2900,10 +2914,10 @@
       </c>
       <c r="G89" s="68"/>
       <c r="H89" s="68" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I89" s="68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J89" s="68"/>
     </row>
@@ -2912,10 +2926,10 @@
         <v>7</v>
       </c>
       <c r="G90" s="68" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H90" s="68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I90" s="68"/>
       <c r="J90" s="68" t="s">
@@ -2931,7 +2945,7 @@
         <v>46</v>
       </c>
       <c r="I91" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J91" s="68"/>
     </row>
@@ -2939,20 +2953,28 @@
       <c r="F92" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
+      <c r="G92" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H92" s="68" t="s">
+        <v>191</v>
+      </c>
       <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
+      <c r="J92" s="68" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="93" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F93" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" s="68" t="s">
+        <v>179</v>
+      </c>
       <c r="J93" s="68"/>
     </row>
     <row r="94" spans="6:10" x14ac:dyDescent="0.25">
@@ -2960,9 +2982,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="68"/>
-      <c r="H94" s="68" t="s">
-        <v>46</v>
-      </c>
+      <c r="H94" s="68"/>
       <c r="I94" s="68"/>
       <c r="J94" s="68"/>
     </row>
@@ -2970,10 +2990,10 @@
       <c r="F95" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68" t="s">
-        <v>47</v>
-      </c>
+      <c r="G95" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H95" s="68"/>
       <c r="I95" s="68"/>
       <c r="J95" s="68"/>
     </row>
@@ -2983,7 +3003,7 @@
       </c>
       <c r="G96" s="68"/>
       <c r="H96" s="68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I96" s="68"/>
       <c r="J96" s="68"/>
@@ -2992,10 +3012,10 @@
       <c r="F97" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="H97" s="68"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="68" t="s">
+        <v>47</v>
+      </c>
       <c r="I97" s="68"/>
       <c r="J97" s="68"/>
     </row>
@@ -3005,7 +3025,7 @@
       </c>
       <c r="G98" s="68"/>
       <c r="H98" s="68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I98" s="68"/>
       <c r="J98" s="68"/>
@@ -3014,10 +3034,10 @@
       <c r="F99" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68" t="s">
-        <v>47</v>
-      </c>
+      <c r="G99" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" s="68"/>
       <c r="I99" s="68"/>
       <c r="J99" s="68"/>
     </row>
@@ -3027,7 +3047,7 @@
       </c>
       <c r="G100" s="68"/>
       <c r="H100" s="68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I100" s="68"/>
       <c r="J100" s="68"/>
@@ -3036,10 +3056,10 @@
       <c r="F101" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="H101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68" t="s">
+        <v>47</v>
+      </c>
       <c r="I101" s="68"/>
       <c r="J101" s="68"/>
     </row>
@@ -3049,7 +3069,7 @@
       </c>
       <c r="G102" s="68"/>
       <c r="H102" s="68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I102" s="68"/>
       <c r="J102" s="68"/>
@@ -3058,10 +3078,10 @@
       <c r="F103" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68" t="s">
-        <v>47</v>
-      </c>
+      <c r="G103" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" s="68"/>
       <c r="I103" s="68"/>
       <c r="J103" s="68"/>
     </row>
@@ -3071,7 +3091,7 @@
       </c>
       <c r="G104" s="68"/>
       <c r="H104" s="68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I104" s="68"/>
       <c r="J104" s="68"/>
@@ -3082,7 +3102,7 @@
       </c>
       <c r="G105" s="68"/>
       <c r="H105" s="68" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I105" s="68"/>
       <c r="J105" s="68"/>
@@ -3093,7 +3113,7 @@
       </c>
       <c r="G106" s="68"/>
       <c r="H106" s="68" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I106" s="68"/>
       <c r="J106" s="68"/>
@@ -3104,7 +3124,7 @@
       </c>
       <c r="G107" s="68"/>
       <c r="H107" s="68" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I107" s="68"/>
       <c r="J107" s="68"/>
@@ -3113,10 +3133,10 @@
       <c r="F108" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="H108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68" t="s">
+        <v>108</v>
+      </c>
       <c r="I108" s="68"/>
       <c r="J108" s="68"/>
     </row>
@@ -3126,7 +3146,7 @@
       </c>
       <c r="G109" s="68"/>
       <c r="H109" s="68" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="I109" s="68"/>
       <c r="J109" s="68"/>
@@ -3135,10 +3155,10 @@
       <c r="F110" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="68"/>
-      <c r="H110" s="68" t="s">
-        <v>47</v>
-      </c>
+      <c r="G110" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H110" s="68"/>
       <c r="I110" s="68"/>
       <c r="J110" s="68"/>
     </row>
@@ -3148,7 +3168,7 @@
       </c>
       <c r="G111" s="68"/>
       <c r="H111" s="68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I111" s="68"/>
       <c r="J111" s="68"/>
@@ -3159,7 +3179,7 @@
       </c>
       <c r="G112" s="68"/>
       <c r="H112" s="68" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I112" s="68"/>
       <c r="J112" s="68"/>
@@ -3170,7 +3190,7 @@
       </c>
       <c r="G113" s="68"/>
       <c r="H113" s="68" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I113" s="68"/>
       <c r="J113" s="68"/>
@@ -3181,10 +3201,32 @@
       </c>
       <c r="G114" s="68"/>
       <c r="H114" s="68" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I114" s="68"/>
       <c r="J114" s="68"/>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F115" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F116" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="I116" s="68"/>
+      <c r="J116" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
